--- a/data/pca/factorExposure/factorExposure_2013-06-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-24.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002106984384327533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001752559307163938</v>
+      </c>
+      <c r="C2">
+        <v>0.03138275840394778</v>
+      </c>
+      <c r="D2">
+        <v>0.003510369687501212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002090816866801484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006402380984485334</v>
+      </c>
+      <c r="C4">
+        <v>0.08352064821762194</v>
+      </c>
+      <c r="D4">
+        <v>0.0805539519655557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003762323273015817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01369541260016682</v>
+      </c>
+      <c r="C6">
+        <v>0.1064548344789815</v>
+      </c>
+      <c r="D6">
+        <v>0.03731721385428462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001199441142657853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005167001794559093</v>
+      </c>
+      <c r="C7">
+        <v>0.05206743700549031</v>
+      </c>
+      <c r="D7">
+        <v>0.03822916881152327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002644930666048605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005929291951613669</v>
+      </c>
+      <c r="C8">
+        <v>0.03768951994788801</v>
+      </c>
+      <c r="D8">
+        <v>0.04093587785887483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005898853586189813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00428452379839808</v>
+      </c>
+      <c r="C9">
+        <v>0.06762400036023845</v>
+      </c>
+      <c r="D9">
+        <v>0.07043939458540521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.005446077995800777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006026425334954875</v>
+      </c>
+      <c r="C10">
+        <v>0.08456718893439974</v>
+      </c>
+      <c r="D10">
+        <v>-0.2149036017619292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005663005716976149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005202445863657767</v>
+      </c>
+      <c r="C11">
+        <v>0.07870706441191712</v>
+      </c>
+      <c r="D11">
+        <v>0.06555835853322402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0008052130522213797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004114035201714801</v>
+      </c>
+      <c r="C12">
+        <v>0.06277165740701714</v>
+      </c>
+      <c r="D12">
+        <v>0.04736555369605433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003241784841483635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008988893104125942</v>
+      </c>
+      <c r="C13">
+        <v>0.06983704509410529</v>
+      </c>
+      <c r="D13">
+        <v>0.07036137847154607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.004270341470837338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.002230135619435899</v>
+      </c>
+      <c r="C14">
+        <v>0.04761717013777338</v>
+      </c>
+      <c r="D14">
+        <v>0.01515260016820411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003601025395837151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005875749439971233</v>
+      </c>
+      <c r="C15">
+        <v>0.03708257854477914</v>
+      </c>
+      <c r="D15">
+        <v>0.04308144509621942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003401821520413188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005240063432807346</v>
+      </c>
+      <c r="C16">
+        <v>0.06405059568713591</v>
+      </c>
+      <c r="D16">
+        <v>0.04976576662619666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001298881486549912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009480319118628235</v>
+      </c>
+      <c r="C20">
+        <v>0.06516256026636465</v>
+      </c>
+      <c r="D20">
+        <v>0.05828131570042046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003074418987899796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100573292206622</v>
+      </c>
+      <c r="C21">
+        <v>0.02618021383008672</v>
+      </c>
+      <c r="D21">
+        <v>0.03659520970206944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01692824585177252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007196627096728444</v>
+      </c>
+      <c r="C22">
+        <v>0.08664500884203533</v>
+      </c>
+      <c r="D22">
+        <v>0.1052382680821377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01717904098288837</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006950943540451259</v>
+      </c>
+      <c r="C23">
+        <v>0.08922011689487321</v>
+      </c>
+      <c r="D23">
+        <v>0.1022468153703044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004372847302738105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004864195184663711</v>
+      </c>
+      <c r="C24">
+        <v>0.07173516658619775</v>
+      </c>
+      <c r="D24">
+        <v>0.06037252656004524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005482260060376289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003132286225253399</v>
+      </c>
+      <c r="C25">
+        <v>0.07675359620164157</v>
+      </c>
+      <c r="D25">
+        <v>0.06433231530710781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007135405104948337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003739427229616621</v>
+      </c>
+      <c r="C26">
+        <v>0.04255217147076411</v>
+      </c>
+      <c r="D26">
+        <v>0.02569183348546279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004568685878749588</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0002669373958613944</v>
+      </c>
+      <c r="C28">
+        <v>0.1337587675445154</v>
+      </c>
+      <c r="D28">
+        <v>-0.304203109729975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001688977151884542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003612727125311952</v>
+      </c>
+      <c r="C29">
+        <v>0.05055838478135022</v>
+      </c>
+      <c r="D29">
+        <v>0.01956453031646964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.006788528487473114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009809569970148584</v>
+      </c>
+      <c r="C30">
+        <v>0.1340660681260159</v>
+      </c>
+      <c r="D30">
+        <v>0.1117042226329038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002807117530600448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006272508640038449</v>
+      </c>
+      <c r="C31">
+        <v>0.04722988116534525</v>
+      </c>
+      <c r="D31">
+        <v>0.03652035406272598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0001074833070856114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004141100265599415</v>
+      </c>
+      <c r="C32">
+        <v>0.03982811299127295</v>
+      </c>
+      <c r="D32">
+        <v>0.01826941908701996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.00391607750199785</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008121316882057146</v>
+      </c>
+      <c r="C33">
+        <v>0.08126159415846614</v>
+      </c>
+      <c r="D33">
+        <v>0.07687768711032311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005654139202354564</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003855682840416901</v>
+      </c>
+      <c r="C34">
+        <v>0.05623238912832481</v>
+      </c>
+      <c r="D34">
+        <v>0.04414103405244548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.00415608923595651</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005021662040018177</v>
+      </c>
+      <c r="C35">
+        <v>0.03907908065325049</v>
+      </c>
+      <c r="D35">
+        <v>0.01628795875595631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00513835987667243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001305528632697274</v>
+      </c>
+      <c r="C36">
+        <v>0.0258829593423592</v>
+      </c>
+      <c r="D36">
+        <v>0.02293187802294465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002156437080862726</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009295276711876462</v>
+      </c>
+      <c r="C38">
+        <v>0.03524530875966417</v>
+      </c>
+      <c r="D38">
+        <v>0.02903418569755056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01517224014384979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0006980370543833827</v>
+      </c>
+      <c r="C39">
+        <v>0.1118240117132356</v>
+      </c>
+      <c r="D39">
+        <v>0.08717589580668789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008371022661690097</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002644633992889769</v>
+      </c>
+      <c r="C40">
+        <v>0.08569725134132235</v>
+      </c>
+      <c r="D40">
+        <v>0.02993251366447372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002075897503959263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007526987305967712</v>
+      </c>
+      <c r="C41">
+        <v>0.04083594643319506</v>
+      </c>
+      <c r="D41">
+        <v>0.03591357504114423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.001887069966698078</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003205240746802044</v>
+      </c>
+      <c r="C43">
+        <v>0.05153148319377454</v>
+      </c>
+      <c r="D43">
+        <v>0.02925084520855349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.004829049637855513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.004078528912299953</v>
+      </c>
+      <c r="C44">
+        <v>0.1048686926125939</v>
+      </c>
+      <c r="D44">
+        <v>0.08678226820717688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002580453321020832</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002662827078263359</v>
+      </c>
+      <c r="C46">
+        <v>0.03422960212243922</v>
+      </c>
+      <c r="D46">
+        <v>0.0341894588835111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002420063342509382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002990856198984153</v>
+      </c>
+      <c r="C47">
+        <v>0.04020022439018858</v>
+      </c>
+      <c r="D47">
+        <v>0.02777010008212315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.00372940586469745</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006564150180213132</v>
+      </c>
+      <c r="C48">
+        <v>0.03158131467267832</v>
+      </c>
+      <c r="D48">
+        <v>0.03020142036718736</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01515197264333275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01450589470969697</v>
+      </c>
+      <c r="C49">
+        <v>0.1663518910120572</v>
+      </c>
+      <c r="D49">
+        <v>0.03964733487568158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0001881571460152324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00419116793613374</v>
+      </c>
+      <c r="C50">
+        <v>0.04274325735840156</v>
+      </c>
+      <c r="D50">
+        <v>0.03795361290474927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002595344012344364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004108141851117078</v>
+      </c>
+      <c r="C51">
+        <v>0.01970090739178162</v>
+      </c>
+      <c r="D51">
+        <v>0.03461156182444597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.000654220480467803</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0205360697227291</v>
+      </c>
+      <c r="C53">
+        <v>0.1636980619343</v>
+      </c>
+      <c r="D53">
+        <v>0.05845664556825695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0009680611848700124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008677025348875132</v>
+      </c>
+      <c r="C54">
+        <v>0.05502226585426073</v>
+      </c>
+      <c r="D54">
+        <v>0.04026089553733903</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005543010040552995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009977769519229971</v>
+      </c>
+      <c r="C55">
+        <v>0.104335239034202</v>
+      </c>
+      <c r="D55">
+        <v>0.05607980302935183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002352904715149433</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01970058462294304</v>
+      </c>
+      <c r="C56">
+        <v>0.1684904370465309</v>
+      </c>
+      <c r="D56">
+        <v>0.05881987243537456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008404125344315446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01973287771905537</v>
+      </c>
+      <c r="C58">
+        <v>0.09995713728041832</v>
+      </c>
+      <c r="D58">
+        <v>0.08185113618228711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007519300408400252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008953200879453458</v>
+      </c>
+      <c r="C59">
+        <v>0.1743243796540397</v>
+      </c>
+      <c r="D59">
+        <v>-0.2697871179215166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.007764238749050746</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02338169073552722</v>
+      </c>
+      <c r="C60">
+        <v>0.2203718448597199</v>
+      </c>
+      <c r="D60">
+        <v>0.03208670730891579</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01736097726878093</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001799712157929517</v>
+      </c>
+      <c r="C61">
+        <v>0.09398451696605858</v>
+      </c>
+      <c r="D61">
+        <v>0.06427395856894612</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1877992327646124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449053408440261</v>
+      </c>
+      <c r="C62">
+        <v>0.06857410904165544</v>
+      </c>
+      <c r="D62">
+        <v>0.05359522997031338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003011146120292629</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006895403156353327</v>
+      </c>
+      <c r="C63">
+        <v>0.05852415904758869</v>
+      </c>
+      <c r="D63">
+        <v>0.027566400079448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006112126875502866</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01573632047237554</v>
+      </c>
+      <c r="C64">
+        <v>0.09741221890372663</v>
+      </c>
+      <c r="D64">
+        <v>0.06658434402840908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0001094686484433039</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01722821655494826</v>
+      </c>
+      <c r="C65">
+        <v>0.1114700045705724</v>
+      </c>
+      <c r="D65">
+        <v>0.03409732838115935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01154376229559018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01280974832879459</v>
+      </c>
+      <c r="C66">
+        <v>0.148772826661677</v>
+      </c>
+      <c r="D66">
+        <v>0.1252985347060567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.00208823361316731</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01540830560224784</v>
+      </c>
+      <c r="C67">
+        <v>0.06438599234854611</v>
+      </c>
+      <c r="D67">
+        <v>0.04106583208573364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007924223350628208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001594435253263421</v>
+      </c>
+      <c r="C68">
+        <v>0.1178382357552147</v>
+      </c>
+      <c r="D68">
+        <v>-0.2621770326686408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003127088466792601</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005402604893003707</v>
+      </c>
+      <c r="C69">
+        <v>0.04671493791275109</v>
+      </c>
+      <c r="D69">
+        <v>0.0458658442906672</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001609666157022664</v>
+      </c>
+      <c r="C70">
+        <v>0.001810570926897246</v>
+      </c>
+      <c r="D70">
+        <v>0.001651882707655628</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.003449635542460306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.0064224153009205</v>
+      </c>
+      <c r="C71">
+        <v>0.1208481305669381</v>
+      </c>
+      <c r="D71">
+        <v>-0.2798023085215021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008567783727424436</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01553393952993201</v>
+      </c>
+      <c r="C72">
+        <v>0.1475204188762028</v>
+      </c>
+      <c r="D72">
+        <v>0.03251521018369233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01340596940704348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03191608982173479</v>
+      </c>
+      <c r="C73">
+        <v>0.283845941560692</v>
+      </c>
+      <c r="D73">
+        <v>0.05251955899857854</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005611754795856659</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002081187618459291</v>
+      </c>
+      <c r="C74">
+        <v>0.1022766143329689</v>
+      </c>
+      <c r="D74">
+        <v>0.04663075449730224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006833726115431391</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01082152447853002</v>
+      </c>
+      <c r="C75">
+        <v>0.1310068329546314</v>
+      </c>
+      <c r="D75">
+        <v>0.04598044547935921</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01115827668776162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02158855211112382</v>
+      </c>
+      <c r="C76">
+        <v>0.1421816826924831</v>
+      </c>
+      <c r="D76">
+        <v>0.07702659005124859</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.002988132166039571</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02324987511510761</v>
+      </c>
+      <c r="C77">
+        <v>0.1262214852082866</v>
+      </c>
+      <c r="D77">
+        <v>0.07230858983135907</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008469347198485413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01484362341699567</v>
+      </c>
+      <c r="C78">
+        <v>0.0901865020168283</v>
+      </c>
+      <c r="D78">
+        <v>0.06896528800509402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02643164161044808</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03704255589422277</v>
+      </c>
+      <c r="C79">
+        <v>0.1536303405451955</v>
+      </c>
+      <c r="D79">
+        <v>0.04214562739162801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004427063172296472</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01083384501278329</v>
+      </c>
+      <c r="C80">
+        <v>0.04111331008024804</v>
+      </c>
+      <c r="D80">
+        <v>0.036014449940899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0009657283903513569</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01491991740637434</v>
+      </c>
+      <c r="C81">
+        <v>0.1196931409867833</v>
+      </c>
+      <c r="D81">
+        <v>0.06505531775924268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.0070755498382822</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01923726640975298</v>
+      </c>
+      <c r="C82">
+        <v>0.1392690784466568</v>
+      </c>
+      <c r="D82">
+        <v>0.05335546756552902</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008439995719722921</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009665166950360595</v>
+      </c>
+      <c r="C83">
+        <v>0.0502711920028986</v>
+      </c>
+      <c r="D83">
+        <v>0.05918837096234068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.0138772216310222</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01237312145169809</v>
+      </c>
+      <c r="C84">
+        <v>0.03040966609293198</v>
+      </c>
+      <c r="D84">
+        <v>5.609508138056136e-06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01636783156227827</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02861884500834647</v>
+      </c>
+      <c r="C85">
+        <v>0.1279981070507909</v>
+      </c>
+      <c r="D85">
+        <v>0.05757867483689776</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.00345685831129615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00490764326007296</v>
+      </c>
+      <c r="C86">
+        <v>0.04743003519540909</v>
+      </c>
+      <c r="D86">
+        <v>0.02258897187892431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00811316347631523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01071258984624663</v>
+      </c>
+      <c r="C87">
+        <v>0.123714708701744</v>
+      </c>
+      <c r="D87">
+        <v>0.08228269853942198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01438925854632372</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002891970167140233</v>
+      </c>
+      <c r="C88">
+        <v>0.07142591861551664</v>
+      </c>
+      <c r="D88">
+        <v>0.01917811245752471</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01452587370551431</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001784434196477858</v>
+      </c>
+      <c r="C89">
+        <v>0.1710681579281865</v>
+      </c>
+      <c r="D89">
+        <v>-0.3369890752646912</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.001714085058632503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007786616733043692</v>
+      </c>
+      <c r="C90">
+        <v>0.1532661347401501</v>
+      </c>
+      <c r="D90">
+        <v>-0.3128220398505493</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0003373823649463707</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01023757517238828</v>
+      </c>
+      <c r="C91">
+        <v>0.1018655968764489</v>
+      </c>
+      <c r="D91">
+        <v>0.02544502936867614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01607279052749263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0009773149161123012</v>
+      </c>
+      <c r="C92">
+        <v>0.1607850914189448</v>
+      </c>
+      <c r="D92">
+        <v>-0.322088919096751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001311512602748493</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005040886559307321</v>
+      </c>
+      <c r="C93">
+        <v>0.134501091685942</v>
+      </c>
+      <c r="D93">
+        <v>-0.3101234086537722</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.001181972032375081</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02229199169256638</v>
+      </c>
+      <c r="C94">
+        <v>0.1552992358341778</v>
+      </c>
+      <c r="D94">
+        <v>0.03892661582248005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006719993561482578</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01675157284916067</v>
+      </c>
+      <c r="C95">
+        <v>0.1195926636055438</v>
+      </c>
+      <c r="D95">
+        <v>0.07083903112797368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004347897707499283</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03339091014261845</v>
+      </c>
+      <c r="C97">
+        <v>0.1682273639317455</v>
+      </c>
+      <c r="D97">
+        <v>0.04697044407272024</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.007537627019170339</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03635269604384006</v>
+      </c>
+      <c r="C98">
+        <v>0.2579103649210219</v>
+      </c>
+      <c r="D98">
+        <v>0.04634334964182842</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.979627404771035</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9823288683390916</v>
+      </c>
+      <c r="C99">
+        <v>-0.1098530322098322</v>
+      </c>
+      <c r="D99">
+        <v>-0.03650708494913731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001642895261550068</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003658482092171001</v>
+      </c>
+      <c r="C101">
+        <v>0.05065156037106002</v>
+      </c>
+      <c r="D101">
+        <v>0.01959125024213652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
